--- a/HtmlToExcel/bin/Debug/Script/script範本.xlsx
+++ b/HtmlToExcel/bin/Debug/Script/script範本.xlsx
@@ -1051,7 +1051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/HtmlToExcel/bin/Debug/Script/script範本.xlsx
+++ b/HtmlToExcel/bin/Debug/Script/script範本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="216">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,9 +1049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2213,12 +2213,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
